--- a/public/report/ScaleList.xlsx
+++ b/public/report/ScaleList.xlsx
@@ -93,109 +93,91 @@
     <t xml:space="preserve">บริษัท มงคลสมัย จำกัด</t>
   </si>
   <si>
-    <t xml:space="preserve">รายการชั่ง ประจำวันที่ 13 พ.ย. 2566 ถึง 19 พ.ย. 2566</t>
+    <t xml:space="preserve">รายการชั่ง ประจำวันที่ 4 ก.พ. 2567 ถึง 7 ก.พ. 2567</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">1233New</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Customer Test 1</t>
   </si>
   <si>
+    <t xml:space="preserve">ทดสอบขนส่งจำกัด 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ชั่งเข้า</t>
   </si>
   <si>
+    <t xml:space="preserve">Product Aa New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยกเลิก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product A2 New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รอการชั่ง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1233A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Test 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202402060003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชั่งสำเร็จ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/02/2024 02:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202402060000</t>
+  </si>
+  <si>
     <t xml:space="preserve">กากน้ำตาล</t>
   </si>
   <si>
-    <t xml:space="preserve">รอการชั่ง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202311170002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1233A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">กท 23-2323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ทดสอบขนส่งจำกัด 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kkk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชั่งสำเร็จ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/11/2023 05:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202311170000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1111</t>
+    <t xml:space="preserve">06/02/2024 01:46</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">Product A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27034</t>
+    <t xml:space="preserve">Product Aa</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">202311170001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ยกเลิก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Product A2</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
+    <t xml:space="preserve">06/02/2024 01:43</t>
   </si>
 </sst>
 </file>
@@ -347,102 +329,6 @@
     <font/>
     <font/>
     <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
   </fonts>
   <fills>
     <fill>
@@ -451,102 +337,6 @@
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
     <fill/>
     <fill/>
     <fill/>
@@ -1467,678 +1257,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2500,294 +1618,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="115" fillId="113" borderId="113" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="116" fillId="114" borderId="114" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="117" fillId="115" borderId="115" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="118" fillId="116" borderId="116" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="119" fillId="117" borderId="117" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="120" fillId="118" borderId="118" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="121" fillId="119" borderId="119" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="122" fillId="120" borderId="120" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="123" fillId="121" borderId="121" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="124" fillId="122" borderId="122" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="125" fillId="123" borderId="123" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="126" fillId="124" borderId="124" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="127" fillId="125" borderId="125" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="128" fillId="126" borderId="126" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="129" fillId="127" borderId="127" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="130" fillId="128" borderId="128" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="131" fillId="129" borderId="129" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="132" fillId="130" borderId="130" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="133" fillId="131" borderId="131" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="134" fillId="132" borderId="132" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="135" fillId="133" borderId="133" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="136" fillId="134" borderId="134" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="137" fillId="135" borderId="135" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="138" fillId="136" borderId="136" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="139" fillId="137" borderId="137" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="140" fillId="138" borderId="138" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="141" fillId="139" borderId="139" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="142" fillId="140" borderId="140" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="143" fillId="141" borderId="141" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="144" fillId="142" borderId="142" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="145" fillId="143" borderId="143" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="146" fillId="144" borderId="144" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="147" fillId="145" borderId="145" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="148" fillId="146" borderId="146" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="149" fillId="147" borderId="147" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="150" fillId="148" borderId="148" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="151" fillId="149" borderId="149" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="152" fillId="150" borderId="150" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="153" fillId="151" borderId="151" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="154" fillId="152" borderId="152" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="155" fillId="153" borderId="153" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="156" fillId="154" borderId="154" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="157" fillId="155" borderId="155" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="158" fillId="156" borderId="156" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="159" fillId="157" borderId="157" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="160" fillId="158" borderId="158" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="161" fillId="159" borderId="159" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="162" fillId="160" borderId="160" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="163" fillId="161" borderId="161" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="164" fillId="162" borderId="162" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="165" fillId="163" borderId="163" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="166" fillId="164" borderId="164" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="167" fillId="165" borderId="165" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="168" fillId="166" borderId="166" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="169" fillId="167" borderId="167" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="170" fillId="168" borderId="168" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="171" fillId="169" borderId="169" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="172" fillId="170" borderId="170" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="173" fillId="171" borderId="171" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="174" fillId="172" borderId="172" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="175" fillId="173" borderId="173" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="176" fillId="174" borderId="174" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="177" fillId="175" borderId="175" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="178" fillId="176" borderId="176" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="179" fillId="177" borderId="177" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="180" fillId="178" borderId="178" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="181" fillId="179" borderId="179" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="182" fillId="180" borderId="180" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="183" fillId="181" borderId="181" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="184" fillId="182" borderId="182" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="185" fillId="183" borderId="183" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="186" fillId="184" borderId="184" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="187" fillId="185" borderId="185" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="188" fillId="186" borderId="186" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="189" fillId="187" borderId="187" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="190" fillId="188" borderId="188" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="191" fillId="189" borderId="189" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="192" fillId="190" borderId="190" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="193" fillId="191" borderId="191" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="194" fillId="192" borderId="192" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="195" fillId="193" borderId="193" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="196" fillId="194" borderId="194" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="197" fillId="195" borderId="195" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="198" fillId="196" borderId="196" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="199" fillId="197" borderId="197" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="200" fillId="198" borderId="198" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="201" fillId="199" borderId="199" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="202" fillId="200" borderId="200" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="203" fillId="201" borderId="201" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="204" fillId="202" borderId="202" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="205" fillId="203" borderId="203" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="206" fillId="204" borderId="204" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="207" fillId="205" borderId="205" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="208" fillId="206" borderId="206" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="209" fillId="207" borderId="207" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="210" fillId="208" borderId="208" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="211" fillId="209" borderId="209" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3248,489 +2078,313 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="E7" t="s" s="11">
+        <v>21</v>
+      </c>
       <c r="F7" t="s" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s" s="14">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s" s="17">
         <v>22</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s" s="17">
-        <v>21</v>
-      </c>
       <c r="L7" s="18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="20"/>
       <c r="O7" s="21"/>
       <c r="P7" t="s" s="22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="23"/>
     </row>
     <row r="8">
       <c r="B8" t="s" s="24">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="25">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s" s="26">
         <v>28</v>
       </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
       <c r="E8" t="s" s="27">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s" s="28">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s" s="29">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s" s="30">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s" s="31">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s" s="32">
         <v>29</v>
       </c>
-      <c r="F8" t="s" s="28">
+      <c r="K8" t="s" s="33">
+        <v>22</v>
+      </c>
+      <c r="L8" s="34">
+        <v>0</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" t="s" s="38">
         <v>30</v>
       </c>
-      <c r="G8" t="s" s="29">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s" s="30">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s" s="31">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s" s="32">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s" s="33">
-        <v>32</v>
-      </c>
-      <c r="L8" s="34">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="35">
-        <v>1400</v>
-      </c>
-      <c r="N8" s="36">
-        <v>1300</v>
-      </c>
-      <c r="O8" s="37">
-        <v>100</v>
-      </c>
-      <c r="P8" t="s" s="38">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s" s="39">
-        <v>34</v>
-      </c>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9">
       <c r="B9" t="s" s="40">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s" s="41">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="42">
+        <v>31</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" t="s" s="43">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s" s="44">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s" s="45">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s" s="46">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s" s="47">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s" s="48">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s" s="49">
         <v>28</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" t="s" s="44">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s" s="45">
-        <v>22</v>
-      </c>
-      <c r="H9" s="46"/>
-      <c r="I9" t="s" s="47">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s" s="48">
-        <v>24</v>
-      </c>
-      <c r="K9" t="s" s="49">
-        <v>21</v>
-      </c>
       <c r="L9" s="50">
-        <v>0</v>
-      </c>
-      <c r="M9" s="51">
-        <v>1200</v>
-      </c>
-      <c r="N9" s="52">
-        <v>1200</v>
-      </c>
-      <c r="O9" s="53">
-        <v>0</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="M9" s="51"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
       <c r="P9" t="s" s="54">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s" s="55">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10">
       <c r="B10" t="s" s="56">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="57">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="58">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s" s="59">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s" s="60">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s" s="61">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s" s="62">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s" s="63">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s" s="64">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s" s="65">
+        <v>20</v>
+      </c>
+      <c r="L10" s="66">
+        <v>10000</v>
+      </c>
+      <c r="M10" s="67">
+        <v>6200</v>
+      </c>
+      <c r="N10" s="68">
+        <v>6200</v>
+      </c>
+      <c r="O10" s="69">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s" s="70">
         <v>37</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" t="s" s="59">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s" s="60">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s" s="61">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s" s="62">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s" s="63">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s" s="64">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s" s="65">
-        <v>21</v>
-      </c>
-      <c r="L10" s="66">
-        <v>0</v>
-      </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="69"/>
-      <c r="P10" t="s" s="70">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="71"/>
+      <c r="Q10" t="s" s="71">
+        <v>38</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="72">
-        <v>38</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
+        <v>39</v>
+      </c>
+      <c r="C11" t="s" s="73">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s" s="74">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s" s="75">
+        <v>21</v>
+      </c>
       <c r="F11" t="s" s="76">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s" s="77">
-        <v>22</v>
-      </c>
-      <c r="H11" s="78"/>
+        <v>23</v>
+      </c>
+      <c r="H11" t="s" s="78">
+        <v>24</v>
+      </c>
       <c r="I11" t="s" s="79">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s" s="80">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s" s="81">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L11" s="82">
-        <v>1111</v>
-      </c>
-      <c r="M11" s="83"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="85"/>
+        <v>20000</v>
+      </c>
+      <c r="M11" s="83">
+        <v>100</v>
+      </c>
+      <c r="N11" s="84">
+        <v>50</v>
+      </c>
+      <c r="O11" s="85">
+        <v>50</v>
+      </c>
       <c r="P11" t="s" s="86">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="87"/>
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s" s="87">
+        <v>42</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="s" s="88">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s" s="89">
         <v>40</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
+      <c r="D12" t="s" s="90">
+        <v>36</v>
+      </c>
       <c r="E12" t="s" s="91">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s" s="92">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s" s="93">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s" s="94">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s" s="95">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s" s="96">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s" s="97">
+        <v>28</v>
+      </c>
+      <c r="L12" s="98">
+        <v>7000</v>
+      </c>
+      <c r="M12" s="99">
+        <v>200</v>
+      </c>
+      <c r="N12" s="100">
+        <v>100</v>
+      </c>
+      <c r="O12" s="101">
+        <v>100</v>
+      </c>
+      <c r="P12" t="s" s="102">
+        <v>37</v>
+      </c>
+      <c r="Q12" t="s" s="103">
         <v>42</v>
       </c>
-      <c r="L12" s="98">
-        <v>12000</v>
-      </c>
-      <c r="M12" s="99"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="101"/>
-      <c r="P12" t="s" s="102">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="103"/>
     </row>
     <row r="13">
       <c r="B13" t="s" s="104">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s" s="105">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s" s="106">
-        <v>28</v>
-      </c>
-      <c r="E13" s="107"/>
+        <v>36</v>
+      </c>
+      <c r="E13" t="s" s="107">
+        <v>21</v>
+      </c>
       <c r="F13" t="s" s="108">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s" s="109">
-        <v>22</v>
-      </c>
-      <c r="H13" s="110"/>
+        <v>23</v>
+      </c>
+      <c r="H13" t="s" s="110">
+        <v>24</v>
+      </c>
       <c r="I13" t="s" s="111">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s" s="112">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s" s="113">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="L13" s="114">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M13" s="115">
-        <v>1200</v>
+        <v>6200</v>
       </c>
       <c r="N13" s="116">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="O13" s="117">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="P13" t="s" s="118">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q13" t="s" s="119">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="s" s="120">
-        <v>45</v>
-      </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" t="s" s="124">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s" s="125">
-        <v>22</v>
-      </c>
-      <c r="H14" s="126"/>
-      <c r="I14" t="s" s="127">
-        <v>23</v>
-      </c>
-      <c r="J14" t="s" s="128">
-        <v>46</v>
-      </c>
-      <c r="K14" t="s" s="129">
-        <v>21</v>
-      </c>
-      <c r="L14" s="130">
-        <v>0</v>
-      </c>
-      <c r="M14" s="131"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="133"/>
-      <c r="P14" t="s" s="134">
         <v>47</v>
       </c>
-      <c r="Q14" s="135"/>
-    </row>
-    <row r="15">
-      <c r="B15" t="s" s="136">
-        <v>48</v>
-      </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="139"/>
-      <c r="F15" t="s" s="140">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s" s="141">
-        <v>22</v>
-      </c>
-      <c r="H15" s="142"/>
-      <c r="I15" t="s" s="143">
-        <v>23</v>
-      </c>
-      <c r="J15" t="s" s="144">
-        <v>46</v>
-      </c>
-      <c r="K15" t="s" s="145">
-        <v>21</v>
-      </c>
-      <c r="L15" s="146">
-        <v>0</v>
-      </c>
-      <c r="M15" s="147"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="149"/>
-      <c r="P15" t="s" s="150">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="151"/>
-    </row>
-    <row r="16">
-      <c r="B16" t="s" s="152">
-        <v>49</v>
-      </c>
-      <c r="C16" s="153"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="155"/>
-      <c r="F16" t="s" s="156">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s" s="157">
-        <v>22</v>
-      </c>
-      <c r="H16" s="158"/>
-      <c r="I16" t="s" s="159">
-        <v>23</v>
-      </c>
-      <c r="J16" t="s" s="160">
-        <v>41</v>
-      </c>
-      <c r="K16" t="s" s="161">
-        <v>21</v>
-      </c>
-      <c r="L16" s="162">
-        <v>0</v>
-      </c>
-      <c r="M16" s="163"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="165"/>
-      <c r="P16" t="s" s="166">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="167"/>
-    </row>
-    <row r="17">
-      <c r="B17" t="s" s="168">
-        <v>50</v>
-      </c>
-      <c r="C17" s="169"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="171"/>
-      <c r="F17" t="s" s="172">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s" s="173">
-        <v>22</v>
-      </c>
-      <c r="H17" s="174"/>
-      <c r="I17" t="s" s="175">
-        <v>23</v>
-      </c>
-      <c r="J17" t="s" s="176">
-        <v>41</v>
-      </c>
-      <c r="K17" t="s" s="177">
-        <v>21</v>
-      </c>
-      <c r="L17" s="178">
-        <v>0</v>
-      </c>
-      <c r="M17" s="179"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="181"/>
-      <c r="P17" t="s" s="182">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="183"/>
-    </row>
-    <row r="18">
-      <c r="B18" t="s" s="184">
-        <v>51</v>
-      </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="187"/>
-      <c r="F18" t="s" s="188">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s" s="189">
-        <v>22</v>
-      </c>
-      <c r="H18" s="190"/>
-      <c r="I18" t="s" s="191">
-        <v>23</v>
-      </c>
-      <c r="J18" t="s" s="192">
-        <v>52</v>
-      </c>
-      <c r="K18" t="s" s="193">
-        <v>21</v>
-      </c>
-      <c r="L18" s="194">
-        <v>0</v>
-      </c>
-      <c r="M18" s="195"/>
-      <c r="N18" s="196"/>
-      <c r="O18" s="197"/>
-      <c r="P18" t="s" s="198">
-        <v>47</v>
-      </c>
-      <c r="Q18" s="199"/>
-    </row>
-    <row r="19">
-      <c r="B19" t="s" s="200">
-        <v>53</v>
-      </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="203"/>
-      <c r="F19" t="s" s="204">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s" s="205">
-        <v>22</v>
-      </c>
-      <c r="H19" s="206"/>
-      <c r="I19" t="s" s="207">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s" s="208">
-        <v>41</v>
-      </c>
-      <c r="K19" t="s" s="209">
-        <v>21</v>
-      </c>
-      <c r="L19" s="210">
-        <v>0</v>
-      </c>
-      <c r="M19" s="211"/>
-      <c r="N19" s="212"/>
-      <c r="O19" s="213"/>
-      <c r="P19" t="s" s="214">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="215"/>
     </row>
   </sheetData>
   <mergeCells count="18">
